--- a/others/精算書.xlsx
+++ b/others/精算書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>経費精算書</t>
     <rPh sb="0" eb="2">
@@ -143,6 +143,17 @@
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンドタオル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩崎</t>
+    <rPh sb="0" eb="2">
+      <t>イワサキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -615,7 +626,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -793,12 +804,24 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
+        <v>255</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>255</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
@@ -872,7 +895,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7">
         <f>SUM($E7:$E21)</f>
-        <v>1536</v>
+        <v>1791</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
